--- a/Docs/lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/lab1/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">R02</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes. The notification requirement is missing, yet the feature exists.</t>
+    <t xml:space="preserve">Yes. The notification requirement is missing, yet the feature exists. Improvement: Specify in the requirements that a notification system is needed.</t>
   </si>
   <si>
     <t xml:space="preserve">R03</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">R04</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes. There si nothing specified about the initial state of the app.</t>
+    <t xml:space="preserve">Yes. There si nothing specified about the initial state of the app. Improvement: Specify in the requirements that a notification system is needed.</t>
   </si>
   <si>
     <t xml:space="preserve">R05</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">No. The functions have been well defined.</t>
   </si>
   <si>
-    <t xml:space="preserve">Effort to review document (hours):</t>
+    <t xml:space="preserve">Effort to review document (hours): 0.5h</t>
   </si>
   <si>
     <t xml:space="preserve">Review Form. Architectural Design Defects</t>
@@ -151,12 +151,36 @@
     <t xml:space="preserve">There is no error handling in case of the empty date fields.</t>
   </si>
   <si>
+    <t xml:space="preserve">Effort to review document (hours): 1h</t>
+  </si>
+  <si>
     <t xml:space="preserve">Review Form. Coding Defects</t>
   </si>
   <si>
     <t xml:space="preserve">Coding Document</t>
   </si>
   <si>
+    <t xml:space="preserve">C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No null check for the fields. Improvement: add null check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">controller/controller.java, line 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not checking if any task is selected. Improvement add a null check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model/task.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erronous logic for getting the time. Confusing function name.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dynamic Code Analysis</t>
   </si>
   <si>
@@ -262,7 +286,7 @@
     <t xml:space="preserve">Added literal to encapsulate the error message</t>
   </si>
   <si>
-    <t xml:space="preserve">Effort to perform dynamic code analysis (hours):</t>
+    <t xml:space="preserve">Effort to perform dynamic code analysis (hours): 1h</t>
   </si>
 </sst>
 </file>
@@ -649,8 +673,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -934,7 +958,7 @@
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="19"/>
     </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="20" t="s">
         <v>29</v>
       </c>
@@ -968,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1260,7 +1284,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="16"/>
@@ -1292,8 +1316,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1321,7 +1345,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1350,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" s="26"/>
       <c r="H4" s="6" t="s">
@@ -1410,31 +1434,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
@@ -1603,7 +1645,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="20" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="16"/>
@@ -1635,8 +1677,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1665,7 +1707,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1691,7 +1733,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1715,7 +1757,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J5" s="28" t="n">
         <v>234</v>
@@ -1734,16 +1776,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,16 +1793,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,16 +1811,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,16 +1829,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,16 +1847,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1823,16 +1865,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1841,16 +1883,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,16 +1901,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2058,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="30" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>

--- a/Docs/lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/lab1/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="89">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -88,22 +88,25 @@
     <t xml:space="preserve">R01</t>
   </si>
   <si>
+    <t xml:space="preserve">Theres is no specification what type of interface is (GUI, API, etc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes. The notification requirement is missing, yet the feature exists. Improvement: Specify in the requirements that a notification system is needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R03</t>
+  </si>
+  <si>
     <t xml:space="preserve">No.</t>
   </si>
   <si>
-    <t xml:space="preserve">R02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes. The notification requirement is missing, yet the feature exists. Improvement: Specify in the requirements that a notification system is needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R03</t>
-  </si>
-  <si>
     <t xml:space="preserve">R04</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes. There si nothing specified about the initial state of the app. Improvement: Specify in the requirements that a notification system is needed.</t>
+    <t xml:space="preserve">Yes. There si nothing specified about the initial state of the app. Improvement: Specify in the requirements that an initial state is needed.</t>
   </si>
   <si>
     <t xml:space="preserve">R05</t>
@@ -529,6 +532,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -575,10 +582,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -673,8 +676,8 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -727,7 +730,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
@@ -745,7 +748,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -763,7 +766,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>14</v>
@@ -771,14 +774,15 @@
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
@@ -792,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
@@ -800,11 +804,11 @@
         <v>20</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
@@ -813,7 +817,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -827,20 +831,20 @@
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,121 +853,121 @@
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="19"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -992,8 +996,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1020,7 +1024,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1045,13 +1049,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="24"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1063,13 +1067,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="25"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1113,12 +1117,12 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>34</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1126,12 +1130,12 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,12 +1143,12 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17" t="s">
+      <c r="C12" s="17" t="s">
         <v>38</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1152,23 +1156,23 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="21.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>41</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,118 +1180,118 @@
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="19"/>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="16"/>
+      <c r="C28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1316,8 +1320,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1345,7 +1349,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1370,13 +1374,13 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="26"/>
+      <c r="D4" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="27"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
@@ -1388,13 +1392,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
@@ -1438,14 +1442,14 @@
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="17" t="s">
         <v>46</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,14 +1457,14 @@
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>48</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,14 +1472,14 @@
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>51</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1483,172 +1487,172 @@
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="16"/>
+      <c r="C32" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1677,8 +1681,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I39" activeCellId="0" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1707,7 +1711,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1724,26 +1728,26 @@
       <c r="H3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="28" t="n">
+      <c r="J3" s="16" t="n">
         <v>231</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
+      <c r="C4" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="28" t="n">
+      <c r="J4" s="16" t="n">
         <v>234</v>
       </c>
     </row>
@@ -1756,10 +1760,10 @@
       <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="J5" s="28" t="n">
+      <c r="I5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="16" t="n">
         <v>234</v>
       </c>
     </row>
@@ -1776,16 +1780,16 @@
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1793,16 +1797,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1811,16 +1815,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,16 +1833,16 @@
         <v>3</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="21.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1847,16 +1851,16 @@
         <v>4</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1865,16 +1869,16 @@
         <v>5</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,16 +1887,16 @@
         <v>6</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1901,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1918,147 +1922,147 @@
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
         <f aca="false">B23+1</f>
         <v>15</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="n">
         <f aca="false">B24+1</f>
         <v>16</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="n">
         <f aca="false">B25+1</f>
         <v>17</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="n">
         <f aca="false">B26+1</f>
         <v>18</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="n">
         <f aca="false">B27+1</f>
         <v>19</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="n">
         <f aca="false">B28+1</f>
         <v>20</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="n">
         <f aca="false">B29+1</f>
         <v>21</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="19"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
